--- a/partslist.xlsx
+++ b/partslist.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Oesch\Documents\ChurchlandLab\chipmunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF55CF-9946-4850-BA48-760FE39E7682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC25B06-879D-4980-A33B-6DA6BC93939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Walls and floor" sheetId="2" r:id="rId1"/>
-    <sheet name="Visual and auditory stimuli" sheetId="1" r:id="rId2"/>
-    <sheet name="Behavior tracking" sheetId="3" r:id="rId3"/>
+    <sheet name="Behavioral control" sheetId="4" r:id="rId2"/>
+    <sheet name="Visual and auditory stimuli" sheetId="1" r:id="rId3"/>
+    <sheet name="Video tracking" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
-  <si>
-    <t>Part number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
   <si>
     <t>Supplier</t>
   </si>
@@ -59,39 +57,12 @@
     <t>Legs attaching the ground plate to the floor</t>
   </si>
   <si>
-    <t>Cap screw 8/32 x 1/2''</t>
-  </si>
-  <si>
-    <t>Headless 1/4''-20 x 5/8'' screws</t>
-  </si>
-  <si>
     <t>Fixing the legs to the floor</t>
   </si>
   <si>
-    <t>Fixing the legs to the ground plate</t>
-  </si>
-  <si>
-    <t>6 x 8 LED array, warm white</t>
-  </si>
-  <si>
     <t>ALA Scientific</t>
   </si>
   <si>
-    <t>Flashboard PCB</t>
-  </si>
-  <si>
-    <t>Custom nose poke with M4 thread on the back</t>
-  </si>
-  <si>
-    <t>Round head M4 screws, 22 mm long</t>
-  </si>
-  <si>
-    <t>M4 washer</t>
-  </si>
-  <si>
-    <t>6.5 mm spacer tubing, 4.3 mm inner diameter for M4 screw</t>
-  </si>
-  <si>
     <t>10 mm outer spacing ring, 38.2 mm inner diameter (for poke)</t>
   </si>
   <si>
@@ -99,13 +70,498 @@
   </si>
   <si>
     <t>spacer plate</t>
+  </si>
+  <si>
+    <t>1'' optical post</t>
+  </si>
+  <si>
+    <t>Rubber band</t>
+  </si>
+  <si>
+    <t>Hold demonstrator front and right side wall together with rubber band</t>
+  </si>
+  <si>
+    <t>Pole to anchor camera to ground plate</t>
+  </si>
+  <si>
+    <t>Right-Angle Clamp for Ø1/2" Posts</t>
+  </si>
+  <si>
+    <t>Camera positioning</t>
+  </si>
+  <si>
+    <t>2'' optical post</t>
+  </si>
+  <si>
+    <t>Camera positioning, 1 each on the groud plate, 2 for the observer side view</t>
+  </si>
+  <si>
+    <t>Catalog number</t>
+  </si>
+  <si>
+    <t>RA90/M</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>TR8</t>
+  </si>
+  <si>
+    <t>TR2</t>
+  </si>
+  <si>
+    <t>RLA 0600</t>
+  </si>
+  <si>
+    <t>Dovetail optical rail</t>
+  </si>
+  <si>
+    <t>Observer side view camera adjustment</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>Dovetail carrier, 1/4''</t>
+  </si>
+  <si>
+    <t>Attaching dovetail optical rail to floor and 2'' post to dovetail carrier</t>
+  </si>
+  <si>
+    <t>Part name</t>
+  </si>
+  <si>
+    <t>Bpod 2</t>
+  </si>
+  <si>
+    <t>Sanworks</t>
+  </si>
+  <si>
+    <t>Stereo speakers, active</t>
+  </si>
+  <si>
+    <t>Harmon/Kardon (discontinued)
+Logitech</t>
+  </si>
+  <si>
+    <t>Part of the nose poke</t>
+  </si>
+  <si>
+    <t>Connect speaker to computer</t>
+  </si>
+  <si>
+    <t>Feed visual signal from sound card into the flashboard PCB</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B06XYCTRP9</t>
+  </si>
+  <si>
+    <t>3.5 mm stereo jack to female to RCA male connector</t>
+  </si>
+  <si>
+    <t>B002N1XN4E</t>
+  </si>
+  <si>
+    <t>RCA female to BNC male connector</t>
+  </si>
+  <si>
+    <t>B005B4O4GG</t>
+  </si>
+  <si>
+    <t>3.5 mm stereo jack female to female connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 mm stereo Audio Cable Extension Male to Male </t>
+  </si>
+  <si>
+    <t>B07QF1VRPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Adapter with External M27 x 0.5 Threads and Internal SM1 Threads</t>
+  </si>
+  <si>
+    <t>ev. 1</t>
+  </si>
+  <si>
+    <t>This piece should be mountable to the outside of the Fujinon DF6HA-1S objectives (M27 x 0.5 mm) and may hold a 25 mm colored glass filter (using a SM1M05 ring</t>
+  </si>
+  <si>
+    <t>SM1A36</t>
+  </si>
+  <si>
+    <t>SH8S050</t>
+  </si>
+  <si>
+    <t>SH8S038</t>
+  </si>
+  <si>
+    <t>Cap screw 8/32 x 1/2'', pack of 50</t>
+  </si>
+  <si>
+    <t>Cap screw 1/4''-20 x 3/8'', pack of 50</t>
+  </si>
+  <si>
+    <t>SH8S025</t>
+  </si>
+  <si>
+    <t>Cap screw 8/32 x 1/4'', pack of 50</t>
+  </si>
+  <si>
+    <t>1/4"-20 Stainless Setscrew, 1/2", pack of 25</t>
+  </si>
+  <si>
+    <t>SS25S050</t>
+  </si>
+  <si>
+    <t>1 (6 needed)</t>
+  </si>
+  <si>
+    <t>Fixing the legs and camera posts to the ground plate</t>
+  </si>
+  <si>
+    <t>1 (4 needed)</t>
+  </si>
+  <si>
+    <t>1 (2 needed)</t>
+  </si>
+  <si>
+    <t>Cap screw 8/32 x 1'', pack of 50</t>
+  </si>
+  <si>
+    <t>SH8S100</t>
+  </si>
+  <si>
+    <t>1 (8 needed)</t>
+  </si>
+  <si>
+    <t>W8S038</t>
+  </si>
+  <si>
+    <t>Washer #8, pack of 100</t>
+  </si>
+  <si>
+    <t>6.5 mm spacer tubing, 4.3 mm inner diameter for 8/32 x 1/4''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control behavior </t>
+  </si>
+  <si>
+    <t>Custom nose poke with 8/32 thread on the back</t>
+  </si>
+  <si>
+    <t>Grainger</t>
+  </si>
+  <si>
+    <t>3XYN9</t>
+  </si>
+  <si>
+    <t>Haxagonal nylon standoff for 8/32 screws, pack of 10</t>
+  </si>
+  <si>
+    <t>1 (8 needded)</t>
+  </si>
+  <si>
+    <t>Nose poke body</t>
+  </si>
+  <si>
+    <t>Spacer at the inside of the cage</t>
+  </si>
+  <si>
+    <t>Spacer at the outside of the cage</t>
+  </si>
+  <si>
+    <t>Additional spacer plate</t>
+  </si>
+  <si>
+    <t>Attaches nose poke PCB to the poke on the outside of the cage</t>
+  </si>
+  <si>
+    <t>Control of beam breaks, LEDs and solenoid valves</t>
+  </si>
+  <si>
+    <t>Nose poke PCB with beam break and LEDS</t>
+  </si>
+  <si>
+    <t>Between screw head and PCB</t>
+  </si>
+  <si>
+    <t>To attach PCB above the spacer plate</t>
+  </si>
+  <si>
+    <t>Haxagonal nylon standoff 0.5'' for 8/32 screws, pack of 10</t>
+  </si>
+  <si>
+    <t>Spacer between the plate holding LED flashboards and the translucent white window in the back wall of the demonstrator</t>
+  </si>
+  <si>
+    <t>ALA-Flash-M-01</t>
+  </si>
+  <si>
+    <t>PCB to control LED flashing, one of two LED arrays to be axtracted for the stimulus presentation</t>
+  </si>
+  <si>
+    <t>Extract the other LED array for the stimulus presentation</t>
+  </si>
+  <si>
+    <t>Teensy 3.2</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Control of the beam break for the observer deck</t>
+  </si>
+  <si>
+    <t>P1609</t>
+  </si>
+  <si>
+    <t>Perma-proto half-sized breadboard</t>
+  </si>
+  <si>
+    <t>Bread board for observer deck control</t>
+  </si>
+  <si>
+    <t>Teensy shield</t>
+  </si>
+  <si>
+    <t>Connect teensy to Bpod</t>
+  </si>
+  <si>
+    <t>3 mm infrared LED</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">696-OED-EL-8L </t>
+  </si>
+  <si>
+    <t>Observer deck beam break</t>
+  </si>
+  <si>
+    <t>3 mm photodiode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-1540031EC4590 </t>
+  </si>
+  <si>
+    <t>Resistor between 5V input and LED</t>
+  </si>
+  <si>
+    <t>Resistor between diode readout and ground</t>
+  </si>
+  <si>
+    <t>47 Ohm resistor, 1/4 W</t>
+  </si>
+  <si>
+    <t>1 MOhm resistor, 1/4 W</t>
+  </si>
+  <si>
+    <t>603-CFR-25JT-52-47R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588-OK1055E-R52 </t>
+  </si>
+  <si>
+    <t>Solenoid valve</t>
+  </si>
+  <si>
+    <t>LHDA1233115H</t>
+  </si>
+  <si>
+    <t>The Lee Company</t>
+  </si>
+  <si>
+    <t>Silicone tubing</t>
+  </si>
+  <si>
+    <t>Control of water dispensing</t>
+  </si>
+  <si>
+    <t>9WDF5</t>
+  </si>
+  <si>
+    <t>1 (~2 m needed)</t>
+  </si>
+  <si>
+    <t>Water delivery</t>
+  </si>
+  <si>
+    <t>18G 2'' needle</t>
+  </si>
+  <si>
+    <t>Female luer to hosebarb adapter</t>
+  </si>
+  <si>
+    <t>HV-30800-08</t>
+  </si>
+  <si>
+    <t>Masterflex</t>
+  </si>
+  <si>
+    <t>Deliver water throught the poke</t>
+  </si>
+  <si>
+    <t>60 ml syringe with luer lock</t>
+  </si>
+  <si>
+    <t>Couple syringe and needle to tubing for water dispensing</t>
+  </si>
+  <si>
+    <t>25 (8 needed)</t>
+  </si>
+  <si>
+    <t>B07P53ZTWN</t>
+  </si>
+  <si>
+    <t>B07Y2HYBDG</t>
+  </si>
+  <si>
+    <t>Water reservoir</t>
+  </si>
+  <si>
+    <t>Warm white LED strip</t>
+  </si>
+  <si>
+    <t>B08CDJGRLQ</t>
+  </si>
+  <si>
+    <t>1 (~25 cm needed)</t>
+  </si>
+  <si>
+    <t>Booth lighting</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>Chameleon3 high-speed camera, 172'' sensor</t>
+  </si>
+  <si>
+    <t>CM3-U3-13Y3M-CS</t>
+  </si>
+  <si>
+    <t>Cameras for demonstrator and observer bottom view and observer side view</t>
+  </si>
+  <si>
+    <t>Synchronize camera acquisition to Bpod trials and synchronize the 3 cameras together</t>
+  </si>
+  <si>
+    <t>Fujinon 1.5 MP 6mm lens</t>
+  </si>
+  <si>
+    <t>B &amp; H photo</t>
+  </si>
+  <si>
+    <t>FUDF6HA1S</t>
+  </si>
+  <si>
+    <t>Observer side view objective</t>
+  </si>
+  <si>
+    <t>USB3.1 locking cable</t>
+  </si>
+  <si>
+    <t>ACC-01-2300</t>
+  </si>
+  <si>
+    <t>Connect cameras to computer</t>
+  </si>
+  <si>
+    <t>Tripod adapter for Chmeleon3</t>
+  </si>
+  <si>
+    <t>ACC-01-0003</t>
+  </si>
+  <si>
+    <t>Attach camera to optical post to anchor it on the ground plate or floor</t>
+  </si>
+  <si>
+    <t>JST GPIO Connector for Chameleon 3</t>
+  </si>
+  <si>
+    <t>ACC-01-3013</t>
+  </si>
+  <si>
+    <t>B08H5TT689</t>
+  </si>
+  <si>
+    <t>Silicone valve cap, pack of 50</t>
+  </si>
+  <si>
+    <t>Velcro tape</t>
+  </si>
+  <si>
+    <t>B00FQ937NM</t>
+  </si>
+  <si>
+    <t>1 (~20 cm needed)</t>
+  </si>
+  <si>
+    <t>Small acrylic plate (for instance 5 x 3 cm), left over from custom cutting</t>
+  </si>
+  <si>
+    <t>M2 x 8 mm screw, philips head</t>
+  </si>
+  <si>
+    <t>31JR96</t>
+  </si>
+  <si>
+    <t>Attach solenoid valves with M2 screws</t>
+  </si>
+  <si>
+    <t>Tape plates with solenoids and syringes to the booth wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computar CS-Mount 2.8-12mm Varifocal Lens, (could be better)
+</t>
+  </si>
+  <si>
+    <t>COZ2813CSIR2</t>
+  </si>
+  <si>
+    <t>Demonstrator and Observer bottom view, alternative</t>
+  </si>
+  <si>
+    <t>YV4.3X2.8SA-2</t>
+  </si>
+  <si>
+    <t>Fujinon CS mount varifocal lens, mannual iris</t>
+  </si>
+  <si>
+    <t>~90</t>
+  </si>
+  <si>
+    <t>Demonstrator and Observer bottom view, first choice</t>
+  </si>
+  <si>
+    <t>discontinued</t>
+  </si>
+  <si>
+    <t>LED flashboard master with cold white 48 LED array</t>
+  </si>
+  <si>
+    <t>B00IZCMYB8</t>
+  </si>
+  <si>
+    <t>Cold white 48 LED array, pack of 6</t>
+  </si>
+  <si>
+    <t>1 (1 extra needed in addition to the Ala board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +574,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,9 +602,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,93 +932,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1328125" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
     <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.9296875" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>390</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>4.88</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>5.38</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>6.11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>7.19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>6.93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>6.65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>45.72</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>26.94</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>36.99</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -552,144 +1228,899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA9598B-599D-42EB-A71C-CAB0F1B18FC1}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.265625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="22.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1024</v>
+      </c>
+      <c r="D3">
+        <v>865</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>8.27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>3.59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>2.92</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2756</v>
+      </c>
+      <c r="D14">
+        <v>19.95</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>4.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1023</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>76.3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>11.8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26">
+        <v>15.99</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>9.99</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.265625" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.46484375" customWidth="1"/>
+    <col min="2" max="3" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <v>12.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.99</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>5.99</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>3.99</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.9296875" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3">
+        <v>369</v>
+      </c>
+      <c r="E3">
         <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>21.86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/partslist.xlsx
+++ b/partslist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Oesch\Documents\ChurchlandLab\chipmunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne\chipmunk_solo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC25B06-879D-4980-A33B-6DA6BC93939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D807B-BBD5-42C9-B0E1-FE396EB54828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Walls and floor" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Visual and auditory stimuli" sheetId="1" r:id="rId3"/>
     <sheet name="Video tracking" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
   <si>
     <t>Supplier</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>1 (1 extra needed in addition to the Ala board</t>
+  </si>
+  <si>
+    <t>Do we have it?</t>
+  </si>
+  <si>
+    <t>How many do we have?</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -616,6 +622,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,22 +941,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.86328125" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -963,11 +975,17 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -981,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -997,11 +1015,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1017,11 +1035,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1037,11 +1055,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1057,11 +1075,11 @@
       <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1077,11 +1095,11 @@
       <c r="E10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -1097,11 +1115,11 @@
       <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1117,22 +1135,22 @@
       <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1148,11 +1166,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1165,11 +1183,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1185,11 +1203,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
@@ -1213,7 +1231,7 @@
       <c r="E18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1229,23 +1247,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA9598B-599D-42EB-A71C-CAB0F1B18FC1}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="22.06640625" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1261,11 +1281,17 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1281,66 +1307,66 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1356,11 +1382,11 @@
       <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -1376,11 +1402,11 @@
       <c r="E11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1396,17 +1422,17 @@
       <c r="E12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1422,11 +1448,11 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -1442,11 +1468,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
@@ -1462,11 +1488,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -1482,11 +1508,11 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -1502,11 +1528,11 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>109</v>
       </c>
@@ -1522,11 +1548,11 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>110</v>
       </c>
@@ -1542,11 +1568,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>113</v>
       </c>
@@ -1560,11 +1586,11 @@
       <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -1580,11 +1606,11 @@
       <c r="E23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1600,11 +1626,11 @@
       <c r="E24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>122</v>
       </c>
@@ -1620,11 +1646,11 @@
       <c r="E25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>121</v>
       </c>
@@ -1640,11 +1666,11 @@
       <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>126</v>
       </c>
@@ -1660,11 +1686,11 @@
       <c r="E27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -1673,11 +1699,11 @@
       <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -1693,11 +1719,11 @@
       <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>155</v>
       </c>
@@ -1713,18 +1739,18 @@
       <c r="E30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1735,19 +1761,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.46484375" customWidth="1"/>
-    <col min="2" max="3" width="15.9296875" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1760,14 +1792,20 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -1777,14 +1815,14 @@
       <c r="C5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
@@ -1797,14 +1835,14 @@
       <c r="D6">
         <v>12.99</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1817,14 +1855,14 @@
       <c r="D7">
         <v>6.99</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1837,14 +1875,14 @@
       <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -1857,25 +1895,25 @@
       <c r="D9">
         <v>3.88</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1888,14 +1926,14 @@
       <c r="D13">
         <v>5.99</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1908,10 +1946,10 @@
       <c r="D14">
         <v>3.99</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1923,22 +1961,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1954,11 +1995,17 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
@@ -1974,11 +2021,11 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -1994,11 +2041,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>145</v>
       </c>
@@ -2014,11 +2061,11 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>148</v>
       </c>
@@ -2034,11 +2081,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -2054,11 +2101,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>167</v>
       </c>
@@ -2074,11 +2121,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
@@ -2094,11 +2141,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2114,7 +2161,7 @@
       <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
     </row>

--- a/partslist.xlsx
+++ b/partslist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne\chipmunk_solo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D807B-BBD5-42C9-B0E1-FE396EB54828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45060608-9EC6-49A6-B069-26325D1F18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Walls and floor" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
   <si>
     <t>Supplier</t>
   </si>
@@ -109,21 +109,6 @@
   </si>
   <si>
     <t>TR2</t>
-  </si>
-  <si>
-    <t>RLA 0600</t>
-  </si>
-  <si>
-    <t>Dovetail optical rail</t>
-  </si>
-  <si>
-    <t>Observer side view camera adjustment</t>
-  </si>
-  <si>
-    <t>RC1</t>
-  </si>
-  <si>
-    <t>Dovetail carrier, 1/4''</t>
   </si>
   <si>
     <t>Attaching dovetail optical rail to floor and 2'' post to dovetail carrier</t>
@@ -181,9 +166,6 @@
     <t>B07QF1VRPB</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>(Adapter with External M27 x 0.5 Threads and Internal SM1 Threads</t>
   </si>
   <si>
@@ -259,9 +241,6 @@
     <t>Grainger</t>
   </si>
   <si>
-    <t>3XYN9</t>
-  </si>
-  <si>
     <t>Haxagonal nylon standoff for 8/32 screws, pack of 10</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>To attach PCB above the spacer plate</t>
   </si>
   <si>
-    <t>Haxagonal nylon standoff 0.5'' for 8/32 screws, pack of 10</t>
-  </si>
-  <si>
     <t>Spacer between the plate holding LED flashboards and the translucent white window in the back wall of the demonstrator</t>
   </si>
   <si>
@@ -308,66 +284,6 @@
   </si>
   <si>
     <t>Extract the other LED array for the stimulus presentation</t>
-  </si>
-  <si>
-    <t>Teensy 3.2</t>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>Control of the beam break for the observer deck</t>
-  </si>
-  <si>
-    <t>P1609</t>
-  </si>
-  <si>
-    <t>Perma-proto half-sized breadboard</t>
-  </si>
-  <si>
-    <t>Bread board for observer deck control</t>
-  </si>
-  <si>
-    <t>Teensy shield</t>
-  </si>
-  <si>
-    <t>Connect teensy to Bpod</t>
-  </si>
-  <si>
-    <t>3 mm infrared LED</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">696-OED-EL-8L </t>
-  </si>
-  <si>
-    <t>Observer deck beam break</t>
-  </si>
-  <si>
-    <t>3 mm photodiode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710-1540031EC4590 </t>
-  </si>
-  <si>
-    <t>Resistor between 5V input and LED</t>
-  </si>
-  <si>
-    <t>Resistor between diode readout and ground</t>
-  </si>
-  <si>
-    <t>47 Ohm resistor, 1/4 W</t>
-  </si>
-  <si>
-    <t>1 MOhm resistor, 1/4 W</t>
-  </si>
-  <si>
-    <t>603-CFR-25JT-52-47R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">588-OK1055E-R52 </t>
   </si>
   <si>
     <t>Solenoid valve</t>
@@ -561,13 +477,34 @@
   </si>
   <si>
     <t>How many do we have?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>sent to Anup for ordering</t>
+  </si>
+  <si>
+    <t>3XYL3</t>
+  </si>
+  <si>
+    <t>Haxagonal nylon standoff 0.25'' for 8/32 screws, pack of 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -582,6 +519,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -608,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,11 +571,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -941,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,11 +987,12 @@
     <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -979,13 +1010,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -998,244 +1032,231 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>4.88</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>4.88</v>
+        <v>5.38</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
+        <v>6.11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>5.38</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
+        <v>7.19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>6.11</v>
+        <v>6.93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>7.19</v>
+        <v>6.65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>6.93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>6.65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>45.72</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>26.94</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
         <v>36.99</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>135</v>
+      <c r="E13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="m">
+      <formula>NOT(ISERROR(SEARCH("m",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -1247,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA9598B-599D-42EB-A71C-CAB0F1B18FC1}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1285,18 +1306,18 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1024</v>
@@ -1308,453 +1329,381 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>79</v>
+      <c r="G5" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>8.27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>8.27</v>
+        <v>3.59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11">
+        <v>2.92</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>3.59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12">
-        <v>2.92</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
+        <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>76.3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="3">
-        <v>2756</v>
-      </c>
-      <c r="D14">
-        <v>19.95</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D15">
-        <v>4.5</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>11.8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>1023</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>15.99</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17">
+        <v>9.99</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18">
-        <v>0.65</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20">
-        <v>0.13</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5.99</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24">
-        <v>76.3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25">
-        <v>11.8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26">
-        <v>15.99</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27">
-        <v>9.99</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="5">
-        <v>7.78</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36">
+        <v>66</v>
+      </c>
+      <c r="E26">
         <v>8</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>38</v>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="m">
+      <formula>NOT(ISERROR(SEARCH("m",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1763,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1781,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1799,58 +1748,58 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D6">
         <v>12.99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>6.99</v>
@@ -1859,18 +1808,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
       <c r="D8">
         <v>0.7</v>
@@ -1879,49 +1828,55 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D9">
         <v>3.88</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>5.99</v>
@@ -1930,18 +1885,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>3.99</v>
@@ -1950,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1999,21 +1954,21 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>369</v>
@@ -2022,18 +1977,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2042,18 +1997,18 @@
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2062,18 +2017,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2082,18 +2037,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>132</v>
@@ -2102,38 +2057,38 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>52</v>
@@ -2142,27 +2097,27 @@
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>21.86</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
